--- a/User/files/Sample Contact Import Format.xlsx
+++ b/User/files/Sample Contact Import Format.xlsx
@@ -1,91 +1,317 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21715"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6E988D4-2F22-4E06-BCD9-6666FC4F4C6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sample Sheet &amp; Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
-    <t>Note</t>
+    <t>Contact Person</t>
   </si>
   <si>
-    <t>Prefix</t>
+    <t>Mobile No</t>
   </si>
   <si>
-    <t>First Name</t>
+    <t>Email ID</t>
   </si>
   <si>
-    <t>Middle Name</t>
+    <t>Contact's Address</t>
   </si>
   <si>
-    <t>Last Name</t>
+    <t>DOB(Date)</t>
   </si>
   <si>
-    <t>Gender</t>
+    <r>
+      <t>PassportNo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Text)</t>
+    </r>
   </si>
   <si>
-    <t>Email</t>
+    <t>Aadhar No(Number)</t>
   </si>
   <si>
-    <t>Phone</t>
+    <r>
+      <t>Married</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Bool)</t>
+    </r>
   </si>
   <si>
-    <t>Sample First Name</t>
+    <r>
+      <t>Anniversary</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Date)</t>
+    </r>
   </si>
   <si>
-    <t>Mr</t>
+    <t>Required</t>
   </si>
   <si>
-    <t>M</t>
+    <t>Good to have</t>
   </si>
   <si>
-    <t>Pitt</t>
+    <t>Optional</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>DOB</t>
   </si>
   <si>
-    <t>support@easycloudbooks.com</t>
+    <r>
+      <t>Aadhar No.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Number)</t>
+    </r>
   </si>
   <si>
-    <t>About this User</t>
+    <t>Rushi Patel</t>
   </si>
   <si>
-    <t>CountryCode</t>
+    <t>rushi@gmail.com</t>
   </si>
   <si>
-    <t>Tag</t>
+    <t>J7891105</t>
   </si>
   <si>
-    <t>Category1;category2</t>
+    <t>Harsh Pandya</t>
   </si>
   <si>
-    <t>First name and last name are Compulsory field</t>
+    <t>H2201349</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ajay Shah</t>
+  </si>
+  <si>
+    <t>ajay@gmail.com</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>New Contact</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Updates Name and Other fields</t>
+  </si>
+  <si>
+    <t>Duplicate/Same</t>
+  </si>
+  <si>
+    <t>Updates Other fields</t>
+  </si>
+  <si>
+    <t>Points to Note</t>
+  </si>
+  <si>
+    <t>These sheet Imports only contacts, but later on If you want to link contact with company then you can use Combination Import Sheet.</t>
+  </si>
+  <si>
+    <t>Max 500 Records can be Imported at a time.</t>
+  </si>
+  <si>
+    <t>Easycloudbooks accepts date in dd-mm-yyyy format only.</t>
+  </si>
+  <si>
+    <t>If multiple Contact share same mobile number then ECB will treat it as Single Contact and will update the contact according to last entry.</t>
+  </si>
+  <si>
+    <t>And If two Contact has same name but their Mobile no. is different then ECB will treat it as two different contacts.</t>
+  </si>
+  <si>
+    <t>ECB allows you to add any number of columns to this sheet and will create custom field for that column.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ECB accepts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(alphanumerical),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> type of custom fields, and, it needs to be specified in the header as shown. </t>
+    </r>
+  </si>
+  <si>
+    <t>Easycloudbooks doesn't do any validation on Custom Fields.</t>
+  </si>
+  <si>
+    <t>If there are two spaces in the name then name will be divided in First Name and Last Name and If there are 3 spaces then it will be divided in First Name, Last Name and Middle Name.</t>
+  </si>
+  <si>
+    <t>Boolean field accepts Y-N, And if cell is blank then ECB will consider it as False.</t>
+  </si>
+  <si>
+    <t>If there is already 2 or more then 2 Contacts exists with same Mobile No.  then ECB will Ignore that record.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -94,16 +320,60 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -111,17 +381,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -132,6 +655,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -180,7 +706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +739,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +791,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,124 +983,3465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:118">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+    </row>
+    <row r="2" spans="1:118" ht="15" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1">
-        <v>91</v>
-      </c>
-      <c r="H2">
-        <v>9898989898</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="D2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="27"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="27"/>
+      <c r="BV2" s="27"/>
+      <c r="BW2" s="27"/>
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="27"/>
+      <c r="CC2" s="27"/>
+      <c r="CD2" s="27"/>
+      <c r="CE2" s="27"/>
+      <c r="CF2" s="27"/>
+      <c r="CG2" s="27"/>
+      <c r="CH2" s="27"/>
+      <c r="CI2" s="27"/>
+      <c r="CJ2" s="27"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="27"/>
+      <c r="CN2" s="27"/>
+      <c r="CO2" s="27"/>
+      <c r="CP2" s="27"/>
+      <c r="CQ2" s="27"/>
+      <c r="CR2" s="27"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="27"/>
+      <c r="CU2" s="27"/>
+      <c r="CV2" s="27"/>
+      <c r="CW2" s="27"/>
+      <c r="CX2" s="27"/>
+      <c r="CY2" s="27"/>
+      <c r="CZ2" s="27"/>
+      <c r="DA2" s="27"/>
+      <c r="DB2" s="27"/>
+      <c r="DC2" s="27"/>
+      <c r="DD2" s="27"/>
+      <c r="DE2" s="27"/>
+      <c r="DF2" s="27"/>
+      <c r="DG2" s="27"/>
+      <c r="DH2" s="27"/>
+      <c r="DI2" s="27"/>
+      <c r="DJ2" s="27"/>
+      <c r="DK2" s="27"/>
+      <c r="DL2" s="27"/>
+      <c r="DM2" s="27"/>
+      <c r="DN2" s="27"/>
+    </row>
+    <row r="3" spans="1:118">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="27"/>
+      <c r="BM3" s="27"/>
+      <c r="BN3" s="27"/>
+      <c r="BO3" s="27"/>
+      <c r="BP3" s="27"/>
+      <c r="BQ3" s="27"/>
+      <c r="BR3" s="27"/>
+      <c r="BS3" s="27"/>
+      <c r="BT3" s="27"/>
+      <c r="BU3" s="27"/>
+      <c r="BV3" s="27"/>
+      <c r="BW3" s="27"/>
+      <c r="BX3" s="27"/>
+      <c r="BY3" s="27"/>
+      <c r="BZ3" s="27"/>
+      <c r="CA3" s="27"/>
+      <c r="CB3" s="27"/>
+      <c r="CC3" s="27"/>
+      <c r="CD3" s="27"/>
+      <c r="CE3" s="27"/>
+      <c r="CF3" s="27"/>
+      <c r="CG3" s="27"/>
+      <c r="CH3" s="27"/>
+      <c r="CI3" s="27"/>
+      <c r="CJ3" s="27"/>
+      <c r="CK3" s="27"/>
+      <c r="CL3" s="27"/>
+      <c r="CM3" s="27"/>
+      <c r="CN3" s="27"/>
+      <c r="CO3" s="27"/>
+      <c r="CP3" s="27"/>
+      <c r="CQ3" s="27"/>
+      <c r="CR3" s="27"/>
+      <c r="CS3" s="27"/>
+      <c r="CT3" s="27"/>
+      <c r="CU3" s="27"/>
+      <c r="CV3" s="27"/>
+      <c r="CW3" s="27"/>
+      <c r="CX3" s="27"/>
+      <c r="CY3" s="27"/>
+      <c r="CZ3" s="27"/>
+      <c r="DA3" s="27"/>
+      <c r="DB3" s="27"/>
+      <c r="DC3" s="27"/>
+      <c r="DD3" s="27"/>
+      <c r="DE3" s="27"/>
+      <c r="DF3" s="27"/>
+      <c r="DG3" s="27"/>
+      <c r="DH3" s="27"/>
+      <c r="DI3" s="27"/>
+      <c r="DJ3" s="27"/>
+      <c r="DK3" s="27"/>
+      <c r="DL3" s="27"/>
+      <c r="DM3" s="27"/>
+      <c r="DN3" s="27"/>
+    </row>
+    <row r="4" spans="1:118">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="27"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="27"/>
+      <c r="BN4" s="27"/>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="27"/>
+      <c r="BU4" s="27"/>
+      <c r="BV4" s="27"/>
+      <c r="BW4" s="27"/>
+      <c r="BX4" s="27"/>
+      <c r="BY4" s="27"/>
+      <c r="BZ4" s="27"/>
+      <c r="CA4" s="27"/>
+      <c r="CB4" s="27"/>
+      <c r="CC4" s="27"/>
+      <c r="CD4" s="27"/>
+      <c r="CE4" s="27"/>
+      <c r="CF4" s="27"/>
+      <c r="CG4" s="27"/>
+      <c r="CH4" s="27"/>
+      <c r="CI4" s="27"/>
+      <c r="CJ4" s="27"/>
+      <c r="CK4" s="27"/>
+      <c r="CL4" s="27"/>
+      <c r="CM4" s="27"/>
+      <c r="CN4" s="27"/>
+      <c r="CO4" s="27"/>
+      <c r="CP4" s="27"/>
+      <c r="CQ4" s="27"/>
+      <c r="CR4" s="27"/>
+      <c r="CS4" s="27"/>
+      <c r="CT4" s="27"/>
+      <c r="CU4" s="27"/>
+      <c r="CV4" s="27"/>
+      <c r="CW4" s="27"/>
+      <c r="CX4" s="27"/>
+      <c r="CY4" s="27"/>
+      <c r="CZ4" s="27"/>
+      <c r="DA4" s="27"/>
+      <c r="DB4" s="27"/>
+      <c r="DC4" s="27"/>
+      <c r="DD4" s="27"/>
+      <c r="DE4" s="27"/>
+      <c r="DF4" s="27"/>
+      <c r="DG4" s="27"/>
+      <c r="DH4" s="27"/>
+      <c r="DI4" s="27"/>
+      <c r="DJ4" s="27"/>
+      <c r="DK4" s="27"/>
+      <c r="DL4" s="27"/>
+      <c r="DM4" s="27"/>
+      <c r="DN4" s="27"/>
+    </row>
+    <row r="16" spans="1:118" ht="21" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
+      <c r="BJ16" s="27"/>
+      <c r="BK16" s="27"/>
+      <c r="BL16" s="27"/>
+      <c r="BM16" s="27"/>
+      <c r="BN16" s="27"/>
+      <c r="BO16" s="27"/>
+      <c r="BP16" s="27"/>
+      <c r="BQ16" s="27"/>
+      <c r="BR16" s="27"/>
+      <c r="BS16" s="27"/>
+      <c r="BT16" s="27"/>
+      <c r="BU16" s="27"/>
+      <c r="BV16" s="27"/>
+      <c r="BW16" s="27"/>
+      <c r="BX16" s="27"/>
+      <c r="BY16" s="27"/>
+      <c r="BZ16" s="27"/>
+      <c r="CA16" s="27"/>
+      <c r="CB16" s="27"/>
+      <c r="CC16" s="27"/>
+      <c r="CD16" s="27"/>
+      <c r="CE16" s="27"/>
+      <c r="CF16" s="27"/>
+      <c r="CG16" s="27"/>
+      <c r="CH16" s="27"/>
+      <c r="CI16" s="27"/>
+      <c r="CJ16" s="27"/>
+      <c r="CK16" s="27"/>
+      <c r="CL16" s="27"/>
+      <c r="CM16" s="27"/>
+      <c r="CN16" s="27"/>
+      <c r="CO16" s="27"/>
+      <c r="CP16" s="27"/>
+      <c r="CQ16" s="27"/>
+      <c r="CR16" s="27"/>
+      <c r="CS16" s="27"/>
+      <c r="CT16" s="27"/>
+      <c r="CU16" s="27"/>
+      <c r="CV16" s="27"/>
+      <c r="CW16" s="27"/>
+      <c r="CX16" s="27"/>
+      <c r="CY16" s="27"/>
+      <c r="CZ16" s="27"/>
+      <c r="DA16" s="27"/>
+      <c r="DB16" s="27"/>
+      <c r="DC16" s="27"/>
+      <c r="DD16" s="27"/>
+      <c r="DE16" s="27"/>
+      <c r="DF16" s="27"/>
+      <c r="DG16" s="27"/>
+      <c r="DH16" s="27"/>
+      <c r="DI16" s="27"/>
+      <c r="DJ16" s="27"/>
+      <c r="DK16" s="27"/>
+      <c r="DL16" s="27"/>
+      <c r="DM16" s="27"/>
+      <c r="DN16" s="27"/>
+    </row>
+    <row r="19" spans="12:13" ht="18" customHeight="1">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="12:13" ht="18" customHeight="1">
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="13:13" ht="15.75" customHeight="1">
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+    </row>
+    <row r="51" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+    </row>
+    <row r="52" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+    </row>
+    <row r="53" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+    </row>
+    <row r="54" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+    </row>
+    <row r="55" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+    </row>
+    <row r="56" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+    </row>
+    <row r="57" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+    </row>
+    <row r="58" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+    </row>
+    <row r="59" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+    </row>
+    <row r="60" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+    </row>
+    <row r="61" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+    </row>
+    <row r="62" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+    </row>
+    <row r="63" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+    </row>
+    <row r="64" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+    </row>
+    <row r="65" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+    </row>
+    <row r="66" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+    </row>
+    <row r="67" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+    </row>
+    <row r="68" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+    </row>
+    <row r="69" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+    </row>
+    <row r="70" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+    </row>
+    <row r="71" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+    </row>
+    <row r="72" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+    </row>
+    <row r="73" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+    </row>
+    <row r="74" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+    </row>
+    <row r="75" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+    </row>
+    <row r="76" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+    </row>
+    <row r="77" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+    </row>
+    <row r="78" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+    </row>
+    <row r="79" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+    </row>
+    <row r="80" spans="10:14" ht="15.75" customHeight="1">
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="J54:N54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="B19" sqref="B18:I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7878078780</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="22">
+        <v>33025</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="23">
+        <v>989710104430</v>
+      </c>
+      <c r="H3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="22">
+        <v>40198</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9898098980</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="22">
+        <v>29252</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7878078780</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="22">
+        <v>31199</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="23">
+        <v>997770133478</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <v>38845</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="A17" s="16">
+        <v>1</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" s="16">
+        <v>2</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="16">
+        <v>3</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="16">
+        <v>4</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="16">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="16">
+        <v>6</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="16">
+        <v>7</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="16">
+        <v>8</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="16">
+        <v>9</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="24">
+        <v>10</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="25">
+        <v>11</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>